--- a/Analysis/ShooterLUT/CompBot/calibration-data-03-25.xlsx
+++ b/Analysis/ShooterLUT/CompBot/calibration-data-03-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malep\Documents\GitHub\GameChangers\Analysis\ShooterLUT\CompBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EA0337-96D9-442A-ABF0-4F048FBEB3D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FDDF29-26B2-4658-AA48-1B5B41213D9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="4070" windowWidth="9860" windowHeight="10510" xr2:uid="{AADD4824-CDA2-4990-995B-5314A08CAC35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{AADD4824-CDA2-4990-995B-5314A08CAC35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Limelight Distance (Feet)</t>
+  </si>
+  <si>
+    <t>Flywheel Setpoint</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,35 +391,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDED970-7E7D-4B6C-B29F-045282703EE7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>8.3539999999999992</v>
-      </c>
-      <c r="B1">
-        <v>11290</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>12.16</v>
+        <v>8.3539999999999992</v>
       </c>
       <c r="B2">
-        <v>10886</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>12.16</v>
+      </c>
+      <c r="B3">
+        <v>10886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>18.45</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>11400</v>
       </c>
     </row>
